--- a/Scraping/IMI/IMI.xlsx
+++ b/Scraping/IMI/IMI.xlsx
@@ -493,10 +493,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>20200803</t>
-        </is>
+      <c r="A2" t="n">
+        <v>20200803</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
